--- a/baust_info/student_data/batch_19_section2_I.xlsx
+++ b/baust_info/student_data/batch_19_section2_I.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AKZRASELGIT\raselrahman.github.io\baust_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AKZRASELGIT\raselrahman.github.io\baust_info\student_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53A855-1063-4047-B42F-CB85E592311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562DF57-4D71-471A-B7E4-8A2CF99F15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>SL</t>
   </si>
@@ -181,16 +181,33 @@
   </si>
   <si>
     <t>22.    </t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>saidput</t>
+  </si>
+  <si>
+    <t>Regular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,16 +230,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,13 +524,14 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,6 +571,21 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>1701133648</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -783,7 +819,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{296C593F-D248-4C9D-9B1F-1EF5D34F79EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/baust_info/student_data/batch_19_section2_I.xlsx
+++ b/baust_info/student_data/batch_19_section2_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AKZRASELGIT\raselrahman.github.io\baust_info\student_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562DF57-4D71-471A-B7E4-8A2CF99F15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B3B5F-31BA-41C7-B9A6-39303007570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>SL</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Regular</t>
+  </si>
+  <si>
+    <t>01788175858</t>
   </si>
 </sst>
 </file>
@@ -234,12 +237,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,7 +528,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -752,7 +756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -763,7 +767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -774,7 +778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -785,7 +789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -807,7 +814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>

--- a/baust_info/student_data/batch_19_section2_I.xlsx
+++ b/baust_info/student_data/batch_19_section2_I.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AKZRASELGIT\raselrahman.github.io\baust_info\student_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\raselrahman.github.io\baust_info\student_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B3B5F-31BA-41C7-B9A6-39303007570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518ED435-FBB5-4D11-A714-B43F74780319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>SL</t>
   </si>
@@ -183,9 +183,6 @@
     <t>22.    </t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
     <t>saidput</t>
   </si>
   <si>
@@ -193,6 +190,129 @@
   </si>
   <si>
     <t>01788175858</t>
+  </si>
+  <si>
+    <t>01304289987</t>
+  </si>
+  <si>
+    <t>01985766180</t>
+  </si>
+  <si>
+    <t>802410105101001</t>
+  </si>
+  <si>
+    <t>802410205101012</t>
+  </si>
+  <si>
+    <t>802410205101076</t>
+  </si>
+  <si>
+    <t>802410205101078</t>
+  </si>
+  <si>
+    <t>802410105101095</t>
+  </si>
+  <si>
+    <t>802410105101033</t>
+  </si>
+  <si>
+    <t>802410105101050</t>
+  </si>
+  <si>
+    <t>802410105101075</t>
+  </si>
+  <si>
+    <t>802410205101098</t>
+  </si>
+  <si>
+    <t>802310205101101</t>
+  </si>
+  <si>
+    <t>802310205101097</t>
+  </si>
+  <si>
+    <t>802310205101040</t>
+  </si>
+  <si>
+    <t>802310205101039</t>
+  </si>
+  <si>
+    <t>802310405101027</t>
+  </si>
+  <si>
+    <t>802310405101026</t>
+  </si>
+  <si>
+    <t>802320105101066</t>
+  </si>
+  <si>
+    <t>802320205101029</t>
+  </si>
+  <si>
+    <t>802320105101022</t>
+  </si>
+  <si>
+    <t>802310105101032</t>
+  </si>
+  <si>
+    <t>802410205101085</t>
+  </si>
+  <si>
+    <t>01701133648</t>
+  </si>
+  <si>
+    <t>01870803661</t>
+  </si>
+  <si>
+    <t>01315157160</t>
+  </si>
+  <si>
+    <t>sadia799915@gmail.com</t>
+  </si>
+  <si>
+    <t>01788222721</t>
+  </si>
+  <si>
+    <t>01771693840</t>
+  </si>
+  <si>
+    <t>01400882013</t>
+  </si>
+  <si>
+    <t>Rangpur, Mistripara</t>
+  </si>
+  <si>
+    <t>rashedulislamrk521@gmail.com</t>
+  </si>
+  <si>
+    <t>tanzimmashrur2005@gmail.com</t>
+  </si>
+  <si>
+    <t>AUAH,Bangali para,Saidpur</t>
+  </si>
+  <si>
+    <t>01736648289</t>
+  </si>
+  <si>
+    <t>Admission Semester</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>18th</t>
+  </si>
+  <si>
+    <t>winter 2024</t>
+  </si>
+  <si>
+    <t>Winter 2024</t>
+  </si>
+  <si>
+    <t>19th</t>
+  </si>
+  <si>
+    <t>16th</t>
   </si>
 </sst>
 </file>
@@ -237,13 +357,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,311 +661,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1">
-        <v>802410105101001</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E2">
-        <v>1701133648</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1">
-        <v>802410205101012</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1">
-        <v>802410205101076</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1">
-        <v>802410205101078</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1">
-        <v>802410105101095</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1">
-        <v>802410105101033</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1">
-        <v>802410105101050</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1">
-        <v>802410105101075</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1">
-        <v>802410205101085</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1">
-        <v>802410205101098</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1">
-        <v>802310105101032</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1">
-        <v>802320105101022</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1">
-        <v>802320205101029</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1">
-        <v>802320105101066</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1">
-        <v>802310405101026</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1">
-        <v>802310405101027</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1">
-        <v>802310205101039</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1">
-        <v>802310205101040</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1">
-        <v>802310205101097</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1">
-        <v>802310205101101</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>210201032</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <v>210201037</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{296C593F-D248-4C9D-9B1F-1EF5D34F79EC}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{ED12D2D1-620C-4A69-B5AF-570FF91F797E}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{19868DE0-88CA-49BE-9709-586B97E674B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/baust_info/student_data/batch_19_section2_I.xlsx
+++ b/baust_info/student_data/batch_19_section2_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\raselrahman.github.io\baust_info\student_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518ED435-FBB5-4D11-A714-B43F74780319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4386FC63-F8E2-4465-9310-0183165D720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
